--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -9,103 +9,36 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="17" windowWidth="20957" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="17" windowWidth="20957" windowHeight="9720"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Лист1!$B$77</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$B$77</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="129">
   <si>
     <t>alpha</t>
   </si>
   <si>
-    <t>Lower bound</t>
-  </si>
-  <si>
-    <t>K lin</t>
-  </si>
-  <si>
-    <t>B lin</t>
-  </si>
-  <si>
-    <t>Upper bound</t>
-  </si>
-  <si>
-    <t>K log</t>
-  </si>
-  <si>
-    <t>Low bound</t>
-  </si>
-  <si>
-    <t>beta pow/K lin</t>
-  </si>
-  <si>
-    <t>K pow/B lin</t>
-  </si>
-  <si>
-    <t>RIM2</t>
-  </si>
-  <si>
-    <t>RMM2</t>
-  </si>
-  <si>
-    <t>1-100</t>
-  </si>
-  <si>
-    <t>SRM2</t>
-  </si>
-  <si>
-    <t>lin</t>
-  </si>
-  <si>
     <t>2-part lin</t>
   </si>
   <si>
-    <t>GZM2</t>
-  </si>
-  <si>
-    <t>SiM2</t>
-  </si>
-  <si>
-    <t>pow</t>
-  </si>
-  <si>
     <t>1-500</t>
   </si>
   <si>
-    <t>EuM2</t>
-  </si>
-  <si>
-    <t>EDM2</t>
-  </si>
-  <si>
-    <t>BRM2</t>
-  </si>
-  <si>
-    <t>BRM2 +</t>
-  </si>
-  <si>
-    <t>GDM2</t>
-  </si>
-  <si>
-    <t>NGM2</t>
-  </si>
-  <si>
     <t>RTS</t>
   </si>
   <si>
@@ -406,9 +339,6 @@
     <t>mean</t>
   </si>
   <si>
-    <t>SPREAD</t>
-  </si>
-  <si>
     <t>R-price shift</t>
   </si>
   <si>
@@ -427,9 +357,6 @@
     <t>2nd component log</t>
   </si>
   <si>
-    <t>total spread</t>
-  </si>
-  <si>
     <t>Spread log model</t>
   </si>
   <si>
@@ -442,9 +369,6 @@
     <t>Z ^2</t>
   </si>
   <si>
-    <t>Equation</t>
-  </si>
-  <si>
     <t>sigma^2 gamma T/2</t>
   </si>
   <si>
@@ -461,6 +385,36 @@
   </si>
   <si>
     <t>Вариант 2</t>
+  </si>
+  <si>
+    <t>log component</t>
+  </si>
+  <si>
+    <t>Equation (set to 0)</t>
+  </si>
+  <si>
+    <t>Linear model Spread</t>
+  </si>
+  <si>
+    <t>Total log model spread</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>ГО всего</t>
+  </si>
+  <si>
+    <t>Ri</t>
+  </si>
+  <si>
+    <t>GD</t>
   </si>
 </sst>
 </file>
@@ -470,13 +424,29 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,19 +474,20 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="5"/>
-        <bgColor indexed="5"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -555,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -563,110 +534,93 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -902,384 +856,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="3" width="10" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>2.4</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>19</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>90</v>
-      </c>
-      <c r="J2">
-        <v>20</v>
-      </c>
-      <c r="L2">
-        <v>0.5</v>
-      </c>
-      <c r="M2">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F3">
-        <v>1.2</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>1.2</v>
-      </c>
-      <c r="J3">
-        <v>20</v>
-      </c>
-      <c r="P3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>1.3</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="F5">
-        <v>2.5</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="L5" s="2">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="M5">
-        <v>3.7</v>
-      </c>
-      <c r="O5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>1.4</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="I6">
-        <v>19</v>
-      </c>
-      <c r="J6">
-        <v>15</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="M6">
-        <v>11.3</v>
-      </c>
-      <c r="O6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>1.2</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>0.3</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>40</v>
-      </c>
-      <c r="I8" s="2">
-        <v>16</v>
-      </c>
-      <c r="J8">
-        <v>40</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="M8" s="4">
-        <v>1</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>1.75</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>1.4</v>
-      </c>
-      <c r="F9">
-        <v>4.8</v>
-      </c>
-      <c r="G9">
-        <v>18</v>
-      </c>
-      <c r="I9">
-        <v>34</v>
-      </c>
-      <c r="J9">
-        <v>18</v>
-      </c>
-      <c r="L9">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="M9">
-        <v>23</v>
-      </c>
-      <c r="O9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>1.4</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>6.9999999999999999E-6</v>
-      </c>
-      <c r="F10">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="G10">
-        <v>20</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1.8000000000000001E-4</v>
-      </c>
-      <c r="J10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>1.2</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2">
-        <v>9.7999999999999997E-4</v>
-      </c>
-      <c r="F12">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="G12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="I13">
-        <v>0.1</v>
-      </c>
-      <c r="J13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14">
-        <v>1.7</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>0.02</v>
-      </c>
-      <c r="F14">
-        <v>0.23</v>
-      </c>
-      <c r="G14">
-        <v>30</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>1.8</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="F15">
-        <v>2E-3</v>
-      </c>
-      <c r="G15">
-        <v>15</v>
-      </c>
-      <c r="I15" s="2">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="J15">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R93"/>
+  <dimension ref="A1:X93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K93" sqref="K93"/>
+      <selection pane="bottomRight" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1297,65 +880,68 @@
     <col min="18" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="8">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="14" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="G2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
@@ -1399,16 +985,20 @@
       <c r="R3" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="U3" s="5">
+        <f>B14+C14+J14+P14</f>
+        <v>58180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1419,8 +1009,8 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>58</v>
+      <c r="H4" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1428,34 +1018,38 @@
       <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>45</v>
+      <c r="L4" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="M4" s="1">
         <v>10</v>
       </c>
-      <c r="O4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="O4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="1">
+        <f>U3*3</f>
+        <v>174540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="16">
+        <v>22</v>
+      </c>
+      <c r="B5" s="12">
         <f>$B$1*0.2</f>
         <v>12.200000000000001</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="13">
         <f>$B$1*0.1</f>
         <v>6.1000000000000005</v>
       </c>
@@ -1468,7 +1062,7 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="20">
         <f>0.01*$B$1</f>
         <v>0.61</v>
       </c>
@@ -1478,239 +1072,285 @@
       <c r="K5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="13">
         <f>$B$1*0.1</f>
         <v>6.1000000000000005</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="13">
         <v>10</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="13">
         <f>$B$1*0.1</f>
         <v>6.1000000000000005</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="13">
         <f>$B$1*0.1</f>
         <v>6.1000000000000005</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="13">
         <f>$B$1*0.1</f>
         <v>6.1000000000000005</v>
       </c>
-      <c r="R5" s="17">
+      <c r="R5" s="13">
         <f>$B$1*0.1</f>
         <v>6.1000000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="U5" s="1">
+        <f>U3*2</f>
+        <v>116360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="K7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="L8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="M8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="P8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="U8" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="V8" s="44">
+        <v>4.6199999999999998E-5</v>
+      </c>
+      <c r="W8" s="1">
+        <f>V8*J13</f>
+        <v>2.8643999999999998</v>
+      </c>
+      <c r="X8" s="1">
+        <f>W8/4</f>
+        <v>0.71609999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="V9" s="44">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="W9" s="1">
+        <f>V9*B13</f>
+        <v>8.5351200000000009</v>
+      </c>
+      <c r="X9" s="1">
+        <f>W9/4</f>
+        <v>2.1337800000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R8" s="23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A10" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="19">
+      <c r="B10" s="15">
         <f>150000/80000</f>
         <v>1.875</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="15">
         <f>30000/9000</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="15">
         <f>160000/30000</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="15">
         <f>75000/16000</f>
         <v>4.6875</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="15">
         <f>75000/6000</f>
         <v>12.5</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="15">
         <f>40000/12000</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="15">
         <f>2.5/0.6</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="15">
         <f>120/25</f>
         <v>4.8</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="15">
         <f>50/15</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="15">
         <v>40</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="15">
         <f>100/50</f>
         <v>2</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="15">
         <f>40/30</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="6">
         <f>40/20</f>
         <v>2</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="6">
         <f>20/5</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="U10" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="V10" s="44">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="W10" s="1">
+        <f>V10*P13</f>
+        <v>13.688400000000001</v>
+      </c>
+      <c r="X10" s="1">
+        <f>W10/4</f>
+        <v>3.4221000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="9">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5">
         <v>106000</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="5">
         <v>1060</v>
       </c>
       <c r="E12" s="1">
@@ -1750,199 +1390,199 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="9">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5">
         <f>B12*0.2/B3*$B$1</f>
         <v>129320</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <f>C12*0.1/C3*$B$1</f>
         <v>12932</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="5">
         <f>E12</f>
         <v>12000</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="5">
         <f t="shared" ref="F13:G13" si="0">F12</f>
         <v>17000</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="5">
         <f>H12*B1</f>
         <v>25010</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="5">
         <f>J12</f>
         <v>62000</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="5">
         <f>K12</f>
         <v>62000</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="5">
         <f>K13</f>
         <v>62000</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="5">
         <f>M12*1000</f>
         <v>9150</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="5">
         <f>O12*10*B1</f>
         <v>61000</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="5">
         <f>P12*B1</f>
         <v>103700</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="5">
         <f>Q12*100*B1</f>
         <v>51850</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="5">
         <f>R12*10*B1</f>
         <v>12200</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="9">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5">
         <v>38000</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="5">
         <v>3800</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="5">
         <v>3250</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="5">
         <v>4540</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="5">
         <v>560</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="5">
         <v>3100</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="5">
         <v>9500</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="5">
         <v>9700</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="5">
         <v>2700</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="5">
         <v>998</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="5">
         <v>20800</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="5">
         <v>6880</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="5">
         <v>12580</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="5">
         <v>2990</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="10">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6">
         <f>B13/B14</f>
         <v>3.4031578947368422</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="6">
         <f>C13/C14</f>
         <v>3.4031578947368422</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="6">
         <f>E13/E14</f>
         <v>3.6923076923076925</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="6">
         <f t="shared" ref="F15:H15" si="1">F13/F14</f>
         <v>3.7444933920704844</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>3.2142857142857144</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="6">
         <f t="shared" si="1"/>
         <v>8.0677419354838715</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="6">
         <f t="shared" ref="J15:R15" si="2">J13/J14</f>
         <v>6.5263157894736841</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="6">
         <f t="shared" si="2"/>
         <v>6.391752577319588</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="6">
         <f t="shared" si="2"/>
         <v>22.962962962962962</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="6">
         <f t="shared" si="2"/>
         <v>9.168336673346694</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="6">
         <f t="shared" si="2"/>
         <v>2.9326923076923075</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="6">
         <f t="shared" si="2"/>
         <v>15.072674418604651</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="6">
         <f t="shared" si="2"/>
         <v>4.1216216216216219</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="6">
         <f t="shared" si="2"/>
         <v>4.080267558528428</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A17" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
+      <c r="A17" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1">
@@ -1980,8 +1620,8 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A19" s="11" t="s">
-        <v>89</v>
+      <c r="A19" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B19" s="1">
         <v>5</v>
@@ -2018,10 +1658,10 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A20" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="22">
+      <c r="A20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="18">
         <v>400</v>
       </c>
       <c r="C20" s="1">
@@ -2056,63 +1696,63 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A21" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="A21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="2">
         <v>5</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="6">
+      <c r="E21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="2">
         <v>5</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="2">
         <v>5</v>
       </c>
-      <c r="M21" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="O21" s="6">
+      <c r="M21" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="O21" s="2">
         <v>5</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="2">
         <v>4</v>
       </c>
-      <c r="Q21" s="21" t="s">
-        <v>96</v>
+      <c r="Q21" s="17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A22" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="O22" s="11" t="s">
-        <v>94</v>
+      <c r="A22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A24" s="11" t="s">
-        <v>95</v>
+      <c r="A24" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -2128,8 +1768,8 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A25" s="11" t="s">
-        <v>89</v>
+      <c r="A25" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="E25" s="1">
         <v>300</v>
@@ -2145,88 +1785,88 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A26" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="21">
+      <c r="A26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="17">
         <v>4</v>
       </c>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="J26" s="6">
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
         <v>5</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A27" s="11"/>
+      <c r="A27" s="7"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A28" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
+      <c r="A28" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A29" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O29" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q29" s="11" t="s">
-        <v>105</v>
+      <c r="A29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="O29" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A30" s="11" t="s">
-        <v>109</v>
+      <c r="A30" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -2249,8 +1889,8 @@
       <c r="L30" s="1">
         <v>1</v>
       </c>
-      <c r="M30" s="11" t="s">
-        <v>119</v>
+      <c r="M30" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="O30" s="1">
         <v>1</v>
@@ -2263,8 +1903,8 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A31" s="11" t="s">
-        <v>110</v>
+      <c r="A31" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="B31" s="1">
         <v>20</v>
@@ -2298,13 +1938,13 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A32" s="11" t="s">
-        <v>108</v>
+      <c r="A32" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="B32" s="1">
         <v>4</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="13">
         <v>2</v>
       </c>
       <c r="E32" s="1">
@@ -2319,7 +1959,7 @@
       <c r="K32" s="1">
         <v>20</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="13">
         <v>2</v>
       </c>
       <c r="O32" s="1">
@@ -2333,8 +1973,8 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A33" s="11" t="s">
-        <v>103</v>
+      <c r="A33" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B33" s="1">
         <v>0.99</v>
@@ -2368,8 +2008,8 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A34" s="11" t="s">
-        <v>101</v>
+      <c r="A34" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="B34" s="1">
         <v>1.52</v>
@@ -2389,7 +2029,7 @@
       <c r="K34" s="1">
         <v>0.69599999999999995</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="7">
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="O34" s="1">
@@ -2403,8 +2043,8 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A35" s="11" t="s">
-        <v>102</v>
+      <c r="A35" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B35" s="1">
         <v>8.9</v>
@@ -2438,75 +2078,75 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A36" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="6">
+      <c r="A36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="2">
         <v>4</v>
       </c>
-      <c r="E36" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="J36" s="6">
+      <c r="E36" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" s="2">
         <v>5</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="2">
         <v>4</v>
       </c>
-      <c r="L36" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="O36" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="P36" s="6">
+      <c r="L36" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="O36" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" s="2">
         <v>5</v>
       </c>
-      <c r="Q36" s="21" t="s">
-        <v>91</v>
+      <c r="Q36" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A38" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="J38" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="K38" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="P38" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q38" s="27" t="s">
-        <v>106</v>
+      <c r="A38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="P38" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q38" s="23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A39" s="11" t="s">
-        <v>109</v>
+      <c r="A39" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="B39" s="1">
         <v>30</v>
@@ -2537,8 +2177,8 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A40" s="11" t="s">
-        <v>110</v>
+      <c r="A40" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="B40" s="1">
         <v>150</v>
@@ -2569,8 +2209,8 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A41" s="11" t="s">
-        <v>111</v>
+      <c r="A41" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B41" s="1">
         <v>5</v>
@@ -2601,8 +2241,8 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A42" s="11" t="s">
-        <v>103</v>
+      <c r="A42" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B42" s="1">
         <v>0.55000000000000004</v>
@@ -2633,8 +2273,8 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A43" s="11" t="s">
-        <v>101</v>
+      <c r="A43" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="B43" s="1">
         <v>44</v>
@@ -2665,8 +2305,8 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A44" s="11" t="s">
-        <v>102</v>
+      <c r="A44" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B44" s="1">
         <v>-99</v>
@@ -2697,13 +2337,13 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A45" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="26">
+      <c r="A45" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="22">
         <v>1E-3</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="22">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="E45" s="1">
@@ -2712,136 +2352,136 @@
       <c r="F45" s="1">
         <v>0</v>
       </c>
-      <c r="J45" s="26">
+      <c r="J45" s="22">
         <v>0</v>
       </c>
       <c r="K45" s="1">
         <v>0</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="13">
         <v>0.03</v>
       </c>
-      <c r="P45" s="17">
+      <c r="P45" s="13">
         <v>5.5E-2</v>
       </c>
-      <c r="Q45" s="17">
+      <c r="Q45" s="13">
         <v>0.34</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A46" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="6">
+      <c r="A46" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="2">
         <v>4</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="2">
         <v>2</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J46" s="2">
+        <v>5</v>
+      </c>
+      <c r="K46" s="2">
+        <v>4</v>
+      </c>
+      <c r="L46" s="2">
+        <v>4</v>
+      </c>
+      <c r="P46" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q46" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A48" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="J46" s="6">
-        <v>5</v>
-      </c>
-      <c r="K46" s="6">
-        <v>4</v>
-      </c>
-      <c r="L46" s="6">
-        <v>4</v>
-      </c>
-      <c r="P46" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q46" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A48" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="O48" s="11" t="s">
-        <v>120</v>
+      <c r="O48" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A49" s="11" t="s">
-        <v>114</v>
+      <c r="A49" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="J49" s="1">
         <v>0.48499999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A50" s="11" t="s">
-        <v>115</v>
+      <c r="A50" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="J50" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A51" s="11" t="s">
-        <v>116</v>
+      <c r="A51" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="J51" s="1">
         <v>0.96</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A52" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="J52" s="21" t="s">
-        <v>18</v>
+      <c r="A52" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A53" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="J53" s="21" t="s">
-        <v>96</v>
+      <c r="A53" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A56" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
+      <c r="A56" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A57" s="11" t="s">
-        <v>122</v>
+      <c r="A57" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="B57" s="1">
         <v>700</v>
@@ -2876,8 +2516,8 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A58" s="11" t="s">
-        <v>123</v>
+      <c r="A58" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="B58" s="1">
         <v>1400</v>
@@ -2912,8 +2552,8 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A59" s="11" t="s">
-        <v>124</v>
+      <c r="A59" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="B59" s="1">
         <v>1000</v>
@@ -2948,58 +2588,75 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A60" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60" s="30">
+      <c r="A60" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="26">
         <f>B59/B12</f>
         <v>9.433962264150943E-3</v>
       </c>
-      <c r="C60" s="30">
+      <c r="C60" s="26">
         <f>C59/C12</f>
         <v>9.433962264150943E-3</v>
       </c>
-      <c r="E60" s="30">
+      <c r="E60" s="26">
         <f>E59/E12</f>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="F60" s="30">
+      <c r="F60" s="26">
         <f>F59/F12</f>
         <v>1.1764705882352941E-2</v>
       </c>
-      <c r="J60" s="30">
+      <c r="J60" s="26">
         <f>J59/J12</f>
         <v>6.4516129032258064E-3</v>
       </c>
-      <c r="K60" s="30">
+      <c r="K60" s="26">
         <f>K59/K12</f>
         <v>6.4516129032258064E-3</v>
       </c>
-      <c r="L60" s="30">
+      <c r="L60" s="26">
         <f>L59/L12</f>
         <v>1.4983518130056936E-3</v>
       </c>
-      <c r="O60" s="30">
+      <c r="O60" s="26">
         <f>O59/O12</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="P60" s="30">
+      <c r="P60" s="26">
         <f>P59/P12</f>
         <v>2.0588235294117649E-3</v>
       </c>
-      <c r="Q60" s="30">
+      <c r="Q60" s="26">
         <f>Q59/Q12</f>
         <v>7.6470588235294122E-3</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A62" s="25" t="s">
-        <v>126</v>
-      </c>
+      <c r="A62" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A63" s="11" t="s">
-        <v>129</v>
+      <c r="A63" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="B63" s="1">
         <f>B64*B59</f>
@@ -3036,14 +2693,14 @@
         <f>P64*P59</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q63" s="31">
+      <c r="Q63" s="27">
         <f>Q64*Q59</f>
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A64" s="11" t="s">
-        <v>127</v>
+      <c r="A64" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="B64" s="1">
         <v>4.0000000000000003E-5</v>
@@ -3076,217 +2733,261 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A65" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="10">
-        <f>B57*B57*B$64 / 2 / B$3</f>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A65" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="6">
+        <f t="shared" ref="B65:C67" si="3">B57*B57*B$64 / 2 / B$3</f>
         <v>0.98000000000000009</v>
       </c>
-      <c r="C65" s="10">
-        <f>C57*C57*C$64 / 2 / C$3</f>
+      <c r="C65" s="6">
+        <f t="shared" si="3"/>
         <v>0.98</v>
       </c>
-      <c r="E65" s="10">
-        <f>E57*E57*E$64 / 2 / E$3</f>
-        <v>1</v>
-      </c>
-      <c r="F65" s="10">
-        <f>F57*F57*F$64 / 2 / F$3</f>
-        <v>1</v>
-      </c>
-      <c r="J65" s="10">
-        <f>J57*J57*J$64 / 2 / J$3</f>
+      <c r="E65" s="6">
+        <f t="shared" ref="E65:F67" si="4">E57*E57*E$64 / 2 / E$3</f>
+        <v>1</v>
+      </c>
+      <c r="F65" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J65" s="6">
+        <f t="shared" ref="J65:L67" si="5">J57*J57*J$64 / 2 / J$3</f>
         <v>1.125</v>
       </c>
-      <c r="K65" s="10">
-        <f>K57*K57*K$64 / 2 / K$3</f>
+      <c r="K65" s="6">
+        <f t="shared" si="5"/>
         <v>1.35</v>
       </c>
-      <c r="L65" s="10">
-        <f>L57*L57*L$64 / 2 / L$3</f>
+      <c r="L65" s="6">
+        <f t="shared" si="5"/>
         <v>0.49999999999999994</v>
       </c>
-      <c r="O65" s="10">
-        <f>O57*O57*O$64 / 2 / O$3</f>
+      <c r="O65" s="6">
+        <f t="shared" ref="O65:Q67" si="6">O57*O57*O$64 / 2 / O$3</f>
         <v>1.25</v>
       </c>
-      <c r="P65" s="10">
-        <f>P57*P57*P$64 / 2 / P$3</f>
+      <c r="P65" s="6">
+        <f t="shared" si="6"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="Q65" s="10">
-        <f>Q57*Q57*Q$64 / 2 / Q$3</f>
+      <c r="Q65" s="6">
+        <f t="shared" si="6"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A66" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B66" s="10">
-        <f>B58*B58*B$64 / 2 / B$3</f>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A66" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="6">
+        <f t="shared" si="3"/>
         <v>3.9200000000000004</v>
       </c>
-      <c r="C66" s="10">
-        <f>C58*C58*C$64 / 2 / C$3</f>
+      <c r="C66" s="6">
+        <f t="shared" si="3"/>
         <v>3.92</v>
       </c>
-      <c r="E66" s="10">
-        <f>E58*E58*E$64 / 2 / E$3</f>
+      <c r="E66" s="6">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="F66" s="10">
-        <f>F58*F58*F$64 / 2 / F$3</f>
+      <c r="F66" s="6">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J66" s="10">
-        <f>J58*J58*J$64 / 2 / J$3</f>
+      <c r="J66" s="6">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="K66" s="10">
-        <f>K58*K58*K$64 / 2 / K$3</f>
+      <c r="K66" s="6">
+        <f t="shared" si="5"/>
         <v>5.4</v>
       </c>
-      <c r="L66" s="10">
-        <f>L58*L58*L$64 / 2 / L$3</f>
+      <c r="L66" s="6">
+        <f t="shared" si="5"/>
         <v>3.125</v>
       </c>
-      <c r="O66" s="10">
-        <f>O58*O58*O$64 / 2 / O$3</f>
+      <c r="O66" s="6">
+        <f t="shared" si="6"/>
         <v>3.2000000000000006</v>
       </c>
-      <c r="P66" s="10">
-        <f>P58*P58*P$64 / 2 / P$3</f>
+      <c r="P66" s="6">
+        <f t="shared" si="6"/>
         <v>2.0249999999999999</v>
       </c>
-      <c r="Q66" s="10">
-        <f>Q58*Q58*Q$64 / 2 / Q$3</f>
+      <c r="Q66" s="6">
+        <f t="shared" si="6"/>
         <v>1.40625</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A67" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B67" s="10">
-        <f>B59*B59*B$64 / 2 / B$3</f>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A67" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="6">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="C67" s="10">
-        <f>C59*C59*C$64 / 2 / C$3</f>
+      <c r="C67" s="6">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E67" s="10">
-        <f>E59*E59*E$64 / 2 / E$3</f>
+      <c r="E67" s="6">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="F67" s="10">
-        <f>F59*F59*F$64 / 2 / F$3</f>
+      <c r="F67" s="6">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J67" s="10">
-        <f>J59*J59*J$64 / 2 / J$3</f>
+      <c r="J67" s="6">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K67" s="10">
-        <f>K59*K59*K$64 / 2 / K$3</f>
+      <c r="K67" s="6">
+        <f t="shared" si="5"/>
         <v>2.4</v>
       </c>
-      <c r="L67" s="10">
-        <f>L59*L59*L$64 / 2 / L$3</f>
+      <c r="L67" s="6">
+        <f t="shared" si="5"/>
         <v>1.125</v>
       </c>
-      <c r="O67" s="10">
-        <f>O59*O59*O$64 / 2 / O$3</f>
+      <c r="O67" s="6">
+        <f t="shared" si="6"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="P67" s="10">
-        <f>P59*P59*P$64 / 2 / P$3</f>
+      <c r="P67" s="6">
+        <f t="shared" si="6"/>
         <v>1.2249999999999999</v>
       </c>
-      <c r="Q67" s="10">
-        <f>Q59*Q59*Q$64 / 2 / Q$3</f>
+      <c r="Q67" s="6">
+        <f t="shared" si="6"/>
         <v>1.0562500000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A68" s="11"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A69" s="25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A70" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" s="10">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A68" s="7"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A69" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A70" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="6">
         <f>2/B64*LOG(1+B64*B43/B18) / B$3</f>
         <v>1.5918295008061849</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="6">
         <f>2/C64*LOG(1+C64*C43/C18) / C$3</f>
         <v>0.92761926885983481</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="J70" s="10">
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="J70" s="6">
         <f>2/J64*LOG(1+J64*J43/J18) / J$3</f>
         <v>6.0573231757710255</v>
       </c>
-      <c r="L70" s="10">
+      <c r="L70" s="6">
         <f>2/L64*LOG(1+L64*L43/L18) / L$3</f>
         <v>0.56891976619338136</v>
       </c>
-      <c r="P70" s="10">
+      <c r="P70" s="6">
         <f>2/P64*LOG(1+P64*P43/P18) / P$3</f>
         <v>1.4028023651420685</v>
       </c>
-      <c r="Q70" s="34">
+      <c r="Q70" s="30">
         <f>LOG(1+Q64*Q43/Q18) *2/Q64 / Q3</f>
         <v>1.5955926652950336</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A71" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B71" s="10">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A71" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="34">
         <f>B70+B67</f>
         <v>3.5918295008061847</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="34">
         <f>C70+C67</f>
         <v>2.9276192688598348</v>
       </c>
-      <c r="J71" s="10">
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="34">
         <f>J70+J67</f>
         <v>8.0573231757710246</v>
       </c>
-      <c r="L71" s="10">
+      <c r="K71" s="21"/>
+      <c r="L71" s="34">
         <f>L70+L67</f>
         <v>1.6939197661933814</v>
       </c>
-      <c r="P71" s="10">
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="34">
         <f>P70+P67</f>
         <v>2.6278023651420686</v>
       </c>
-      <c r="Q71" s="10">
+      <c r="Q71" s="34">
         <f>Q70+Q67</f>
         <v>2.6518426652950335</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A73" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A74" s="11" t="s">
-        <v>135</v>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A73" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A74" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="B74" s="1">
         <f>B64/B18/B34</f>
@@ -3312,11 +3013,11 @@
         <f>K64/K18/K34</f>
         <v>2.3299161230195714E-5</v>
       </c>
-      <c r="L74" s="26">
+      <c r="L74" s="22">
         <f>L64/L18/L34</f>
         <v>17857142.857142858</v>
       </c>
-      <c r="O74" s="26">
+      <c r="O74" s="22">
         <f>O64/O18/O34</f>
         <v>163.9344262295082</v>
       </c>
@@ -3329,11 +3030,11 @@
         <v>711.23755334281634</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A75" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B75" s="17">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A75" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="13">
         <f>B74^2</f>
         <v>1.2022930132348416E-10</v>
       </c>
@@ -3341,27 +3042,27 @@
         <f>C74^2</f>
         <v>0.76946752847029865</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="13">
         <f>E74^2</f>
         <v>1.0045152331909912E-4</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F75" s="13">
         <f>F74^2</f>
         <v>1.4827096043552521E-7</v>
       </c>
-      <c r="J75" s="17">
+      <c r="J75" s="13">
         <f>J74^2</f>
         <v>2.2171980691351473E-8</v>
       </c>
-      <c r="K75" s="17">
+      <c r="K75" s="13">
         <f>K74^2</f>
         <v>5.4285091403065504E-10</v>
       </c>
-      <c r="L75" s="26">
+      <c r="L75" s="22">
         <f>L74^2</f>
         <v>318877551020408.19</v>
       </c>
-      <c r="O75" s="26">
+      <c r="O75" s="22">
         <f>O74^2</f>
         <v>26874.496103198067</v>
       </c>
@@ -3374,183 +3075,197 @@
         <v>505858.85728507553</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A76" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B76" s="10">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A76" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="6">
         <f>-B77+B78+B79</f>
         <v>-9.9622960584300202E-6</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="6">
         <f>-E77+E78+E79</f>
         <v>2.3391506737890921E-4</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F76" s="6">
         <f>-F77+F78+F79</f>
         <v>-4.4863104293080269E-5</v>
       </c>
-      <c r="J76" s="10">
+      <c r="J76" s="6">
         <f>-J77+J78+J79</f>
-        <v>-0.40007464908695933</v>
-      </c>
-      <c r="K76" s="10">
+        <v>-1.8327765230186088E-4</v>
+      </c>
+      <c r="K76" s="6">
         <f>-K77+K78+K79</f>
         <v>-4.7303206032189848E-6</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A77" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B77" s="1">
+      <c r="L76" s="6">
+        <f>-L77+L78+L79</f>
+        <v>-5.6578264648293436E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A77" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="28">
         <v>20.297310798479341</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="28">
         <v>1.1477705713753632</v>
       </c>
-      <c r="E77" s="1">
+      <c r="D77" s="28"/>
+      <c r="E77" s="28">
         <v>2.2046087437843229</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="28">
         <v>2.875835415219314</v>
       </c>
-      <c r="J77" s="1">
-        <v>5.2693206713802461</v>
-      </c>
-      <c r="K77" s="1">
+      <c r="J77" s="28">
+        <v>5.521422881475492</v>
+      </c>
+      <c r="K77" s="28">
         <v>1.1377146165197403</v>
       </c>
-      <c r="L77" s="26">
+      <c r="L77" s="31">
         <v>0.11999132708006374</v>
       </c>
-      <c r="O77" s="1">
+      <c r="O77" s="28">
         <v>6.4843326222551294E-5</v>
       </c>
-      <c r="P77" s="1">
+      <c r="P77" s="28">
         <v>0.2354251861089135</v>
       </c>
-      <c r="Q77" s="1">
+      <c r="Q77" s="28">
         <v>2.0017687704218974E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A78" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B78" s="10">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A78" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" s="6">
         <f>B59*B59*B$64 / 2</f>
         <v>20</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="6">
         <f>C59*C59*C$64 / 2</f>
         <v>1</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="6">
         <f>E59*E59*E$64 / 2</f>
         <v>4</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F78" s="6">
         <f>F59*F59*F$64 / 2</f>
         <v>4</v>
       </c>
-      <c r="J78" s="10">
+      <c r="J78" s="6">
         <f>J59*J59*J$64 / 2</f>
         <v>2</v>
       </c>
-      <c r="K78" s="10">
+      <c r="K78" s="6">
         <f>K59*K59*K$64 / 2</f>
         <v>2.4</v>
       </c>
-      <c r="L78" s="32">
+      <c r="L78" s="28">
         <f>L59*L59*L$64 / 2</f>
         <v>1.125E-4</v>
       </c>
-      <c r="O78" s="31">
+      <c r="O78" s="27">
         <f>O59*O59*O$64 / 2</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="P78" s="31">
+      <c r="P78" s="27">
         <f>P59*P59*P$64 / 2</f>
         <v>0.1225</v>
       </c>
-      <c r="Q78" s="31">
+      <c r="Q78" s="27">
         <f>Q59*Q59*Q$64 / 2</f>
         <v>1.0562500000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A79" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="7">
         <f>1/B64 * LOG(1+B74*(B77-2*B35))</f>
         <v>0.2973008361832824</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E79" s="7">
         <f>1/E64 * LOG(1+E74*(E77-2*E35))</f>
         <v>-1.7951573411482982</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F79" s="7">
         <f>1/F64 * LOG(1+F74*(F77-2*F35))</f>
         <v>-1.1242094478849791</v>
       </c>
-      <c r="J79" s="11">
+      <c r="J79" s="7">
         <f>1/J64 * LOG(1+J74*(J77-2*J35))</f>
-        <v>2.8692460222932867</v>
-      </c>
-      <c r="K79" s="11">
+        <v>3.5212396038231901</v>
+      </c>
+      <c r="K79" s="7">
         <f>1/K64 * LOG(1+K74*(K77-2*K35))</f>
         <v>-1.2622901138008629</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A80" s="11"/>
+      <c r="L79" s="7">
+        <f>1/L64 * LOG(1+L74*(L77-2*L35))</f>
+        <v>6.3300562431770305E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A80" s="7"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A81" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B81" s="10">
+      <c r="A81" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="6">
         <f>-B77+B78+B82</f>
         <v>-7.9270928644015193E-6</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="6">
         <f>-C77+C78+C82</f>
         <v>-8.354674857657951E-6</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="6">
         <f>-E77+E78+E82</f>
         <v>1.7179718746502814E-3</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F81" s="6">
         <f>-F77+F78+F82</f>
         <v>1.0064264370313047E-4</v>
       </c>
-      <c r="J81" s="10">
+      <c r="J81" s="6">
         <f>-J77+J78+J82</f>
-        <v>-0.39995617284272544</v>
-      </c>
-      <c r="K81" s="10">
+        <v>-4.8398516736547492E-6</v>
+      </c>
+      <c r="K81" s="6">
         <f>-K77+K78+K82</f>
         <v>2.2786313274458792E-5</v>
       </c>
-      <c r="L81" s="10">
+      <c r="L81" s="6">
         <f>-L77+L78+L82</f>
         <v>7.0170193236601675E-4</v>
       </c>
-      <c r="O81" s="10">
+      <c r="O81" s="6">
         <f>-O77+O78+O82</f>
         <v>6.1659721108907328E-6</v>
       </c>
-      <c r="P81" s="10">
+      <c r="P81" s="6">
         <f>-P77+P78+P82</f>
         <v>-2.3014036240553981E-5</v>
       </c>
-      <c r="Q81" s="10">
+      <c r="Q81" s="6">
         <f>-Q77+Q78+Q82</f>
         <v>1.4683648361366584E-4</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A82" s="32" t="s">
+        <v>119</v>
+      </c>
       <c r="B82" s="1">
         <f>1/B64*LOG(1+B74*(B77-2*B35) + B75*(B35*B35-B35*B77+B77*B77/4))</f>
         <v>0.29730287138647643</v>
@@ -3569,7 +3284,7 @@
       </c>
       <c r="J82" s="1">
         <f>1/J64*LOG(1+J74*(J77-2*J35) + J75*(J35*J35-J35*J77+J77*J77/4))</f>
-        <v>2.8693644985375206</v>
+        <v>3.5214180416238183</v>
       </c>
       <c r="K82" s="1">
         <f>1/K64*LOG(1+K74*(K77-2*K35) + K75*(K35*K35-K35*K77+K77*K77/4))</f>
@@ -3592,115 +3307,128 @@
         <v>1.0923552540355631E-3</v>
       </c>
     </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A83" s="32"/>
+    </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A84" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B84" s="10">
+      <c r="A84" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84" s="34">
         <f>B77/B3</f>
         <v>2.029731079847934</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84" s="34">
         <f>C77/C3</f>
         <v>2.2955411427507264</v>
       </c>
-      <c r="E84" s="10">
+      <c r="D84" s="21"/>
+      <c r="E84" s="34">
         <f>E77/E3</f>
         <v>2.2046087437843229</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F84" s="34">
         <f>F77/F3</f>
         <v>2.875835415219314</v>
       </c>
-      <c r="J84" s="10">
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="34">
         <f>J77/J3</f>
-        <v>5.2693206713802461</v>
-      </c>
-      <c r="K84" s="10">
+        <v>5.521422881475492</v>
+      </c>
+      <c r="K84" s="34">
         <f>K77/K3</f>
         <v>1.1377146165197403</v>
       </c>
-      <c r="L84" s="10">
+      <c r="L84" s="35">
         <f>L77/L3</f>
         <v>1199.9132708006373</v>
       </c>
-      <c r="O84" s="10">
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="35">
         <f>O77/O3</f>
         <v>6.4843326222551291E-3</v>
       </c>
-      <c r="P84" s="10">
+      <c r="P84" s="34">
         <f>P77/P3</f>
         <v>2.3542518610891348</v>
       </c>
-      <c r="Q84" s="10">
+      <c r="Q84" s="34">
         <f>Q77/Q3</f>
         <v>2.0017687704218972</v>
       </c>
     </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="H85" s="3"/>
+    </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A86" s="11" t="s">
-        <v>139</v>
+      <c r="A86" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A87" s="11" t="s">
-        <v>141</v>
-      </c>
+      <c r="A87" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P87" s="38"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A88" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B88" s="1">
+      <c r="A88" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="13">
         <v>2</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="13">
         <v>2</v>
       </c>
-      <c r="J88" s="1">
+      <c r="J88" s="13">
         <v>2</v>
       </c>
       <c r="L88" s="1">
         <v>1</v>
       </c>
-      <c r="P88" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q88" s="1">
+      <c r="P88" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A89" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B89" s="1">
+      <c r="A89" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="13">
         <v>4</v>
       </c>
-      <c r="C89" s="1">
-        <v>3</v>
-      </c>
-      <c r="J89" s="1">
+      <c r="C89" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="J89" s="13">
         <v>8</v>
       </c>
       <c r="L89" s="1">
         <v>2</v>
       </c>
-      <c r="P89" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="1">
-        <v>3</v>
+      <c r="P89" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q89" s="40" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A91" s="11" t="s">
-        <v>143</v>
+      <c r="A91" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A92" s="11" t="s">
-        <v>140</v>
+      <c r="A92" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -3711,34 +3439,40 @@
       <c r="J92" s="1">
         <v>1</v>
       </c>
-      <c r="L92" s="1">
-        <v>1</v>
-      </c>
-      <c r="P92" s="1">
-        <v>1</v>
+      <c r="L92" s="13">
+        <v>2</v>
+      </c>
+      <c r="M92" s="13">
+        <v>2</v>
+      </c>
+      <c r="P92" s="38">
+        <v>2</v>
       </c>
       <c r="Q92" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A93" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B93" s="1">
-        <v>3</v>
+      <c r="A93" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="C93" s="1">
         <v>2</v>
       </c>
-      <c r="J93" s="1">
-        <v>7</v>
-      </c>
-      <c r="L93" s="1">
-        <v>2</v>
-      </c>
-      <c r="P93" s="1">
-        <v>2</v>
+      <c r="J93" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="L93" s="13">
+        <v>4</v>
+      </c>
+      <c r="M93" s="13">
+        <v>4</v>
+      </c>
+      <c r="P93" s="39" t="s">
+        <v>124</v>
       </c>
       <c r="Q93" s="1">
         <v>2</v>
